--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14430" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14430"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Log" sheetId="2" r:id="rId2"/>
     <sheet name="HY_Card" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="tbl_user" sheetId="11" r:id="rId4"/>
+    <sheet name="tbl_org" sheetId="10" r:id="rId5"/>
+    <sheet name="tbl_dict" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>HY_Card</t>
   </si>
@@ -29,9 +31,6 @@
   </si>
   <si>
     <t>内容</t>
-  </si>
-  <si>
-    <t>新建文档</t>
   </si>
   <si>
     <t>Table Name</t>
@@ -159,6 +158,344 @@
   </si>
   <si>
     <t>HY_Card</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>父节点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>层级编码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+  </si>
+  <si>
+    <t>levelCode</t>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>条目version（乐观锁）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>update_date_time</t>
+  </si>
+  <si>
+    <t>删除标识：
+0-未删除
+1-已删除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date_time</t>
+  </si>
+  <si>
+    <t>字典编号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(ID)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_dict</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型：
+0-一级部门
+1-二级部门
+3-三级部门</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态：
+10-正常
+20-离职待审核
+30-新增待审核</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+  </si>
+  <si>
+    <t>audit_status</t>
+  </si>
+  <si>
+    <t>部门ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>是否超级管理员</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSuperAdmin</t>
+  </si>
+  <si>
+    <t>微信号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat</t>
+  </si>
+  <si>
+    <t>座机号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>telphone</t>
+  </si>
+  <si>
+    <t>性别：
+1-男
+2-女</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>QQ号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
+    <t>open_account</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>头像图片ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>条目version（乐观锁）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标识：
+0-未删除
+1-已删除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典编号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(ID)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_org</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新建文档
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加办公管理相关表</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息表</t>
+  </si>
+  <si>
+    <t>员工信息表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_org</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_dict</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -262,13 +599,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -290,6 +620,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -410,7 +747,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,8 +760,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,19 +822,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -512,7 +846,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,13 +864,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -554,10 +888,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,11 +900,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +918,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -590,32 +945,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -897,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -908,52 +1306,64 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="44" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:21" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="C1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>128</v>
+      </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -1312,6 +1722,9 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" location="HY_Card!A1" display="HY_Card"/>
+    <hyperlink ref="C3" location="tbl_user!A1" display="tbl_user"/>
+    <hyperlink ref="C4" location="tbl_org!A1" display="tbl_org"/>
+    <hyperlink ref="C5" location="tbl_dict!A1" display="tbl_dict"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1323,57 +1736,57 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="2" width="13.75" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="100.75" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="44"/>
+    <col min="2" max="2" width="13.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="100.75" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:4" s="44" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="25">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="23">
         <v>43035</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>4</v>
+      <c r="C2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1"/>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1"/>
@@ -1427,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1437,165 +1850,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="52" t="s">
+      <c r="B6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="B7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="B9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="34" t="s">
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="60" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="37">
+        <v>10</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="39">
-        <v>10</v>
-      </c>
-      <c r="E11" s="40" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="41">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1618,13 +2031,796 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="20.625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="23" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" customHeight="1">
+      <c r="A19" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" customHeight="1">
+      <c r="A24" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="20.625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="23" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="76" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A13" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="20.625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="23" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="62" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="6"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>模块名</t>
   </si>
@@ -457,6 +457,24 @@
   <si>
     <t>update_time</t>
   </si>
+  <si>
+    <t>parent_ID</t>
+  </si>
+  <si>
+    <t>上级ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>类型：
+1：一级分类
+2：二级分类
+3：三级分类</t>
+  </si>
 </sst>
 </file>
 
@@ -464,11 +482,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,13 +518,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -681,8 +692,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,9 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,24 +741,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -760,43 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,37 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +825,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,13 +891,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +1007,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1007,9 +1020,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1118,10 +1129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,133 +1141,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1265,11 +1276,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,31 +1320,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="51" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,40 +1392,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,7 +1449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1444,10 +1464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,7 +1476,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,19 +1485,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1489,13 +1509,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,75 +1861,75 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="53" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A1" s="60" t="s">
+    <row r="1" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="66"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="54" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
+    <row r="4" s="57" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="54" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
-      <c r="A5" s="68"/>
-      <c r="B5" s="67" t="s">
+    <row r="5" s="57" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
+      <c r="A5" s="71"/>
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A6" s="57"/>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" s="55" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A7" s="71"/>
+      <c r="A6" s="60"/>
+      <c r="D6" s="60"/>
+    </row>
+    <row r="7" s="58" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A7" s="74"/>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="74"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -1928,182 +1948,182 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A8" s="72"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-    </row>
-    <row r="9" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A9" s="72"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-    </row>
-    <row r="10" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A10" s="72"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-    </row>
-    <row r="11" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A11" s="72"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
+    <row r="8" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A8" s="75"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+    </row>
+    <row r="9" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A9" s="75"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+    </row>
+    <row r="10" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A10" s="75"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+    </row>
+    <row r="11" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
+      <c r="A11" s="75"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="60"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="60"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:4">
-      <c r="A16" s="57"/>
-      <c r="D16" s="57"/>
-    </row>
-    <row r="17" s="54" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="A16" s="60"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" s="57" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A17" s="59"/>
+      <c r="D17" s="59"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="A18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="71"/>
+      <c r="A19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="A20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="A21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="A22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="A23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" s="57" customFormat="1" ht="20.1" customHeight="1" spans="2:21">
+      <c r="A24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" s="60" customFormat="1" ht="20.1" customHeight="1" spans="2:21">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
@@ -2123,10 +2143,10 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" s="58" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="57"/>
+    <row r="26" s="61" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
+      <c r="A26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="60"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -2134,10 +2154,10 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" s="58" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="57"/>
+    <row r="27" s="61" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
+      <c r="A27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="60"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -2145,10 +2165,10 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" s="58" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="57"/>
+    <row r="28" s="61" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
+      <c r="A28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="60"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
@@ -2157,49 +2177,49 @@
       <c r="K28"/>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
+      <c r="A29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E32" s="57"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E33" s="57"/>
+      <c r="E33" s="60"/>
     </row>
     <row r="34" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E34" s="57"/>
+      <c r="E34" s="60"/>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E35" s="57"/>
+      <c r="E35" s="60"/>
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E36" s="57"/>
-    </row>
-    <row r="37" s="59" customFormat="1" ht="20.1" customHeight="1" spans="2:11">
+      <c r="E36" s="60"/>
+    </row>
+    <row r="37" s="62" customFormat="1" ht="20.1" customHeight="1" spans="2:11">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="E37" s="57"/>
+      <c r="E37" s="60"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
@@ -2207,17 +2227,17 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" s="57" customFormat="1" ht="20.1" customHeight="1" spans="2:21">
+    <row r="38" s="60" customFormat="1" ht="20.1" customHeight="1" spans="2:21">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -2230,25 +2250,25 @@
       <c r="U38"/>
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="5:11">
-      <c r="E39" s="73"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="5:11">
-      <c r="E40" s="73"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E41" s="57"/>
+      <c r="E41" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2260,7 +2280,7 @@
     <hyperlink ref="C4" location="tbl_org!A1" display="tbl_org"/>
     <hyperlink ref="C5" location="tbl_dict!A1" display="tbl_dict"/>
   </hyperlinks>
-  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -2277,52 +2297,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="44"/>
-    <col min="2" max="2" width="13.75" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="100.75" style="45" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="9" style="47"/>
+    <col min="2" max="2" width="13.75" style="48" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="100.75" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+    <row r="1" s="47" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="52">
         <v>43035</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" ht="20.1" customHeight="1"/>
     <row r="6" ht="20.1" customHeight="1"/>
@@ -2366,7 +2386,7 @@
     <row r="44" ht="20.1" customHeight="1"/>
     <row r="45" ht="20.1" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -2386,165 +2406,165 @@
     <col min="1" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A2" s="22" t="s">
+    <row r="2" s="23" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="27" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="34"/>
+      <c r="B5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="26" t="s">
+    <row r="8" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="26" t="s">
+    <row r="9" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="34" t="s">
+    <row r="10" s="23" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" s="21" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A11" s="37" t="s">
+    <row r="11" s="24" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A11" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="42">
         <v>10</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="43" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="45">
         <v>0</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="46" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2560,7 +2580,7 @@
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -2577,12 +2597,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15"/>
+    <col min="1" max="4" width="20.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2595,7 +2615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2626,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2617,7 +2637,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2634,7 +2654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -2649,7 +2669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="60" customHeight="1" spans="1:5">
+    <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -2675,7 +2695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -2688,7 +2708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -2701,7 +2721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
@@ -2714,7 +2734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -2749,7 +2769,7 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2827,7 +2847,7 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2892,7 +2912,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2921,12 +2941,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15"/>
+    <col min="1" max="4" width="20.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2939,7 +2959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2950,7 +2970,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2961,7 +2981,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -2993,7 +3013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
@@ -3006,7 +3026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="60" customHeight="1" spans="1:5">
+    <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -3019,7 +3039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -3032,7 +3052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -3045,7 +3065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
@@ -3058,7 +3078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>98</v>
       </c>
@@ -3084,16 +3104,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" ht="80.1" customHeight="1" spans="1:5">
-      <c r="A13" s="17" t="s">
+    <row r="13" s="19" customFormat="1" ht="80.1" customHeight="1" spans="1:5">
+      <c r="A13" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3149,12 +3169,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15"/>
+    <col min="1" max="4" width="20.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="23" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3167,7 +3187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3178,7 +3198,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -3189,7 +3209,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3206,7 +3226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -3221,7 +3241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
@@ -3234,7 +3254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="60" customHeight="1" spans="1:5">
+    <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +3267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -3260,7 +3280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
@@ -3286,7 +3306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>98</v>
       </c>
@@ -3368,10 +3388,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3578,6 +3598,32 @@
         <v>59</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" ht="72" customHeight="1" spans="1:5">
+      <c r="A17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>

--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="6"/>
+    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="tbl_org" sheetId="10" r:id="rId5"/>
     <sheet name="tbl_dict" sheetId="9" r:id="rId6"/>
     <sheet name="tbl_materiel" sheetId="12" r:id="rId7"/>
+    <sheet name="tbl_channel" sheetId="13" r:id="rId8"/>
+    <sheet name="tbl_purchase_history" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>模块名</t>
   </si>
@@ -408,6 +410,12 @@
     <t>物料编号</t>
   </si>
   <si>
+    <t>mat_name</t>
+  </si>
+  <si>
+    <t>物料名称</t>
+  </si>
+  <si>
     <t>mat_standard</t>
   </si>
   <si>
@@ -474,6 +482,105 @@
 1：一级分类
 2：二级分类
 3：三级分类</t>
+  </si>
+  <si>
+    <t>reserve1</t>
+  </si>
+  <si>
+    <t>预留字段1</t>
+  </si>
+  <si>
+    <t>reserve2</t>
+  </si>
+  <si>
+    <t>预留字段2</t>
+  </si>
+  <si>
+    <t>reserve3</t>
+  </si>
+  <si>
+    <t>预留字段3</t>
+  </si>
+  <si>
+    <t>tbl_channel</t>
+  </si>
+  <si>
+    <t>采购渠道表</t>
+  </si>
+  <si>
+    <t>采购渠道ID</t>
+  </si>
+  <si>
+    <t>所属物料编号</t>
+  </si>
+  <si>
+    <t>所属物料名称</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
+    <t>录入人员ID</t>
+  </si>
+  <si>
+    <t>录入姓名</t>
+  </si>
+  <si>
+    <t>录入时间</t>
+  </si>
+  <si>
+    <t>tbl_purchase_history</t>
+  </si>
+  <si>
+    <t>历史采购记录表</t>
+  </si>
+  <si>
+    <t>历史采购ID</t>
+  </si>
+  <si>
+    <t>purchase_name</t>
+  </si>
+  <si>
+    <t>采购人员</t>
+  </si>
+  <si>
+    <t>purchase_name_ID</t>
+  </si>
+  <si>
+    <t>采购人员ID</t>
+  </si>
+  <si>
+    <t>purchase_time</t>
+  </si>
+  <si>
+    <t>采购时间</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>所属项目</t>
+  </si>
+  <si>
+    <t>project_ID</t>
+  </si>
+  <si>
+    <t>所属项目ID</t>
   </si>
 </sst>
 </file>
@@ -587,7 +694,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,30 +715,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -647,14 +730,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -662,39 +737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,8 +751,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,13 +848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,13 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +938,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,19 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,37 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,17 +1131,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,21 +1151,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,11 +1172,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,26 +1188,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,145 +1236,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1287,21 +1394,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1314,19 +1433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2397,7 +2504,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2522,7 @@
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2606,12 +2713,12 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2619,23 +2726,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -2655,263 +2762,263 @@
       </c>
     </row>
     <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1" spans="1:5">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="22" t="s">
         <v>95</v>
       </c>
@@ -2950,12 +3057,12 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2963,23 +3070,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -2999,108 +3106,108 @@
       </c>
     </row>
     <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3118,28 +3225,28 @@
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3164,7 +3271,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3178,12 +3285,12 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3191,23 +3298,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -3227,147 +3334,147 @@
       </c>
     </row>
     <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3388,10 +3495,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3403,42 +3510,42 @@
     <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="20.1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3455,173 +3562,780 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+    <row r="7" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" ht="51" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" ht="81" customHeight="1" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" ht="51" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:5">
-      <c r="A9" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="8" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" ht="72" customHeight="1" spans="1:5">
-      <c r="A17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
-        <v>138</v>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="832" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="tbl_materiel" sheetId="12" r:id="rId7"/>
     <sheet name="tbl_channel" sheetId="13" r:id="rId8"/>
     <sheet name="tbl_purchase_history" sheetId="14" r:id="rId9"/>
+    <sheet name="tbl_budget" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>模块名</t>
   </si>
@@ -582,16 +583,70 @@
   <si>
     <t>所属项目ID</t>
   </si>
+  <si>
+    <t>tbl_budget</t>
+  </si>
+  <si>
+    <t>成本预算表</t>
+  </si>
+  <si>
+    <t>预算记录ID</t>
+  </si>
+  <si>
+    <t>budget_name</t>
+  </si>
+  <si>
+    <t>预算信息名称</t>
+  </si>
+  <si>
+    <t>budget_people_ID</t>
+  </si>
+  <si>
+    <t>预算人员ID</t>
+  </si>
+  <si>
+    <t>approver_ID</t>
+  </si>
+  <si>
+    <t>审核人ID</t>
+  </si>
+  <si>
+    <t>isApprover</t>
+  </si>
+  <si>
+    <t>审核标志（0：未审核；1：已审核）</t>
+  </si>
+  <si>
+    <t>edit_people_ID</t>
+  </si>
+  <si>
+    <t>编辑人ID（供应渠道）</t>
+  </si>
+  <si>
+    <t>isEdit</t>
+  </si>
+  <si>
+    <t>编辑标志（0：未编辑；1已编辑）</t>
+  </si>
+  <si>
+    <t>编辑时间</t>
+  </si>
+  <si>
+    <t>approver_date_time</t>
+  </si>
+  <si>
+    <t>审核时间</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -686,84 +741,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,7 +764,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,14 +779,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,8 +830,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,13 +903,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,13 +945,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,25 +987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +1017,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,43 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,25 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,13 +1077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,6 +1186,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1142,15 +1206,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,33 +1227,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,11 +1253,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,10 +1291,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,16 +1303,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1266,115 +1321,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1409,10 +1464,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,11 +2016,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" customWidth="1"/>
+    <col min="2" max="3" width="40.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="23.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
@@ -2393,6 +2448,274 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="19.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" ht="41" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" ht="21.1" customHeight="1" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2402,11 +2725,11 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="47"/>
     <col min="2" max="2" width="13.75" style="48" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="15.8796296296296" style="48" customWidth="1"/>
     <col min="4" max="4" width="100.75" style="48" customWidth="1"/>
     <col min="5" max="16384" width="9" style="48"/>
   </cols>
@@ -2504,13 +2827,13 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="6" width="20.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:5">
@@ -2702,9 +3025,9 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="18" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" style="18" customWidth="1"/>
     <col min="5" max="5" width="23" style="18" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
@@ -2855,170 +3178,170 @@
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1" spans="1:5">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="22" t="s">
         <v>95</v>
       </c>
@@ -3046,9 +3369,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="18" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" style="18" customWidth="1"/>
     <col min="5" max="5" width="23" style="18" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
@@ -3199,15 +3522,15 @@
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3225,28 +3548,28 @@
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3274,9 +3597,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="18" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" style="18" customWidth="1"/>
     <col min="5" max="5" width="23" style="18" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
@@ -3427,54 +3750,54 @@
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3497,15 +3820,15 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
@@ -3680,106 +4003,106 @@
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="18" ht="81" customHeight="1" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3802,17 +4125,17 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="20.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="17.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1" spans="1:5">
@@ -3985,89 +4308,89 @@
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:5">
       <c r="A21" s="15"/>
@@ -4077,10 +4400,10 @@
       <c r="E21" s="15"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="16"/>
     </row>
   </sheetData>
@@ -4102,17 +4425,17 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="24.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="20.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="9.62962962962963" customWidth="1"/>
+    <col min="5" max="5" width="14.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.1" customHeight="1" spans="1:5">
@@ -4287,54 +4610,54 @@
       </c>
     </row>
     <row r="14" ht="21.1" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" ht="21.1" customHeight="1" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" ht="21.1" customHeight="1" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" ht="21.1" customHeight="1" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>146</v>
       </c>
     </row>

--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="832" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" tabRatio="832" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="tbl_channel" sheetId="13" r:id="rId8"/>
     <sheet name="tbl_purchase_history" sheetId="14" r:id="rId9"/>
     <sheet name="tbl_budget" sheetId="15" r:id="rId10"/>
+    <sheet name="tbl_project_fileitem" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
   <si>
     <t>模块名</t>
   </si>
@@ -637,18 +638,123 @@
   <si>
     <t>审核时间</t>
   </si>
+  <si>
+    <t>项目文件上传明细表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(ID)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(36)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典编号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标识：
+0-未删除
+1-已删除</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目version（乐观锁）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_no</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(32)</t>
+  </si>
+  <si>
+    <t>批次编号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_user_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传用户ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(64)</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(128)</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_size</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件原名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_project_fileitem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,7 +802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -741,138 +847,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,8 +858,114 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,115 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,74 +996,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1185,308 +1094,172 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1494,22 +1267,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1524,6 +1297,147 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1533,213 +1447,145 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="49">
+    <cellStyle name="差 2" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 10" xfId="8"/>
+    <cellStyle name="常规 11" xfId="9"/>
+    <cellStyle name="常规 12" xfId="10"/>
+    <cellStyle name="常规 13" xfId="11"/>
+    <cellStyle name="常规 13 2" xfId="12"/>
+    <cellStyle name="常规 14" xfId="13"/>
+    <cellStyle name="常规 15" xfId="14"/>
+    <cellStyle name="常规 16" xfId="15"/>
+    <cellStyle name="常规 17" xfId="16"/>
+    <cellStyle name="常规 18" xfId="17"/>
+    <cellStyle name="常规 19" xfId="18"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="6"/>
+    <cellStyle name="常规 2 2 2" xfId="19"/>
+    <cellStyle name="常规 2 3" xfId="20"/>
+    <cellStyle name="常规 2 4" xfId="21"/>
+    <cellStyle name="常规 2 4 2" xfId="22"/>
+    <cellStyle name="常规 2 5" xfId="23"/>
+    <cellStyle name="常规 2 6" xfId="24"/>
+    <cellStyle name="常规 20" xfId="25"/>
+    <cellStyle name="常规 21" xfId="26"/>
+    <cellStyle name="常规 22" xfId="27"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="28"/>
+    <cellStyle name="常规 3 3" xfId="29"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 4 2" xfId="30"/>
+    <cellStyle name="常规 5" xfId="31"/>
+    <cellStyle name="常规 6" xfId="32"/>
+    <cellStyle name="常规 6 2" xfId="33"/>
+    <cellStyle name="常规 7" xfId="34"/>
+    <cellStyle name="常规 7 2" xfId="35"/>
+    <cellStyle name="常规 8" xfId="36"/>
+    <cellStyle name="常规 8 2" xfId="37"/>
+    <cellStyle name="常规 8 3" xfId="38"/>
+    <cellStyle name="常规 9" xfId="39"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 10" xfId="40"/>
+    <cellStyle name="超链接 2" xfId="5"/>
+    <cellStyle name="超链接 3" xfId="41"/>
+    <cellStyle name="超链接 4" xfId="42"/>
+    <cellStyle name="超链接 5" xfId="43"/>
+    <cellStyle name="超链接 6" xfId="44"/>
+    <cellStyle name="超链接 7" xfId="45"/>
+    <cellStyle name="超链接 8" xfId="46"/>
+    <cellStyle name="超链接 9" xfId="47"/>
+    <cellStyle name="好 2" xfId="48"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
-      <color rgb="00FF0000"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2002,11 +1848,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -2016,82 +1863,82 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.6296296296296" customWidth="1"/>
-    <col min="2" max="3" width="40.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="23.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:21" s="45" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="66" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="67" t="s">
+    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="57" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
+    <row r="4" spans="1:21" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="57" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
-      <c r="A5" s="71"/>
-      <c r="B5" s="70" t="s">
+    <row r="5" spans="1:21" s="46" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="67"/>
+      <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="73"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A6" s="60"/>
-      <c r="D6" s="60"/>
-    </row>
-    <row r="7" s="58" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A7" s="74"/>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="7" spans="1:21" s="47" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="60"/>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="60"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -2110,182 +1957,182 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A8" s="75"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-    </row>
-    <row r="9" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A9" s="75"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-    </row>
-    <row r="10" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A10" s="75"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-    </row>
-    <row r="11" s="59" customFormat="1" ht="20.1" customHeight="1" spans="1:21">
-      <c r="A11" s="75"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="60"/>
-      <c r="D12" s="60"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A13" s="60"/>
-      <c r="D13" s="60"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A14" s="60"/>
-      <c r="D14" s="60"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="60"/>
-      <c r="D15" s="60"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1" spans="1:4">
-      <c r="A16" s="60"/>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" s="57" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A17" s="59"/>
-      <c r="D17" s="59"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="74"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-    </row>
-    <row r="25" s="60" customFormat="1" ht="20.1" customHeight="1" spans="2:21">
+    <row r="8" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+    </row>
+    <row r="9" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+    </row>
+    <row r="10" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+    </row>
+    <row r="11" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="49"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="49"/>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="49"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="49"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:21" ht="19.5" customHeight="1">
+      <c r="A16" s="49"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:21" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="48"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="60"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+    </row>
+    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+    </row>
+    <row r="25" spans="1:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
@@ -2305,10 +2152,10 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" s="61" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="60"/>
+    <row r="26" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="49"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -2316,10 +2163,10 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" s="61" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="60"/>
+    <row r="27" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="49"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -2327,10 +2174,10 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" s="61" customFormat="1" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="60"/>
+    <row r="28" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="49"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
@@ -2338,50 +2185,50 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="1:11">
-      <c r="A29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A30" s="60"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-    </row>
-    <row r="32" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E32" s="60"/>
-    </row>
-    <row r="33" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E33" s="60"/>
-    </row>
-    <row r="34" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E34" s="60"/>
-    </row>
-    <row r="35" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E35" s="60"/>
-    </row>
-    <row r="36" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E36" s="60"/>
-    </row>
-    <row r="37" s="62" customFormat="1" ht="20.1" customHeight="1" spans="2:11">
+    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="49"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+    </row>
+    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+    </row>
+    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="E32" s="49"/>
+    </row>
+    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E33" s="49"/>
+    </row>
+    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E34" s="49"/>
+    </row>
+    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E35" s="49"/>
+    </row>
+    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E36" s="49"/>
+    </row>
+    <row r="37" spans="2:21" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="E37" s="60"/>
+      <c r="E37" s="49"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
@@ -2389,17 +2236,17 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" s="60" customFormat="1" ht="20.1" customHeight="1" spans="2:21">
+    <row r="38" spans="2:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -2411,97 +2258,96 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="5:11">
-      <c r="E39" s="76"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-    </row>
-    <row r="40" ht="20.1" customHeight="1" spans="5:11">
-      <c r="E40" s="76"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="5:5">
-      <c r="E41" s="60"/>
+    <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E39" s="62"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E40" s="62"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="E41" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" location="HY_Card!A1" display="HY_Card"/>
     <hyperlink ref="C3" location="tbl_user!A1" display="tbl_user"/>
     <hyperlink ref="C4" location="tbl_org!A1" display="tbl_org"/>
     <hyperlink ref="C5" location="tbl_dict!A1" display="tbl_dict"/>
   </hyperlinks>
-  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="19.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="21.2" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="21.1" customHeight="1" spans="1:5">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.2" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="21.1" customHeight="1" spans="1:5">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2518,7 +2364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="21.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="21.2" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2533,7 +2379,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" ht="21.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="21.2" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>177</v>
       </c>
@@ -2546,7 +2392,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" ht="21.1" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="21.2" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -2559,7 +2405,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" ht="21.1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="21.2" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>179</v>
       </c>
@@ -2572,7 +2418,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" ht="21.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="21.2" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>181</v>
       </c>
@@ -2585,7 +2431,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="45" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>183</v>
       </c>
@@ -2598,7 +2444,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" ht="21.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="21.2" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>185</v>
       </c>
@@ -2611,7 +2457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" ht="41" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="41.1" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>187</v>
       </c>
@@ -2624,7 +2470,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" ht="21.1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="21.2" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -2637,7 +2483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="21.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="21.2" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -2650,7 +2496,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" ht="21.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="21.2" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>190</v>
       </c>
@@ -2663,7 +2509,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" ht="21.1" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="21.2" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>141</v>
       </c>
@@ -2676,7 +2522,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" ht="21.1" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="21.2" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>143</v>
       </c>
@@ -2689,7 +2535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" ht="21.1" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="21.2" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>145</v>
       </c>
@@ -2708,366 +2554,605 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="47"/>
-    <col min="2" max="2" width="13.75" style="48" customWidth="1"/>
-    <col min="3" max="3" width="15.8796296296296" style="48" customWidth="1"/>
-    <col min="4" max="4" width="100.75" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="48"/>
+    <col min="1" max="1" width="9" style="36"/>
+    <col min="2" max="2" width="13.75" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="100.75" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" s="47" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="41">
         <v>43035</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1"/>
-    <row r="6" ht="20.1" customHeight="1"/>
-    <row r="7" ht="20.1" customHeight="1"/>
-    <row r="8" ht="60" customHeight="1"/>
-    <row r="9" ht="20.1" customHeight="1"/>
-    <row r="10" ht="60" customHeight="1"/>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="39.95" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
-    <row r="16" ht="60" customHeight="1"/>
-    <row r="17" ht="39.95" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="39.95" customHeight="1"/>
-    <row r="21" ht="80.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="8" spans="1:4" ht="60" customHeight="1"/>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="1:4" ht="60" customHeight="1"/>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1"/>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="1:4" ht="60" customHeight="1"/>
+    <row r="16" spans="1:4" ht="60" customHeight="1"/>
+    <row r="17" ht="39.950000000000003" customHeight="1"/>
+    <row r="18" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" ht="39.950000000000003" customHeight="1"/>
+    <row r="21" ht="80.099999999999994" customHeight="1"/>
+    <row r="22" ht="20.100000000000001" customHeight="1"/>
     <row r="23" ht="60" customHeight="1"/>
-    <row r="24" ht="39.95" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="24" ht="39.950000000000003" customHeight="1"/>
+    <row r="25" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" ht="20.100000000000001" customHeight="1"/>
     <row r="28" ht="60" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
-    <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
-    <row r="37" ht="20.1" customHeight="1"/>
-    <row r="38" ht="20.1" customHeight="1"/>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
-    <row r="43" ht="20.1" customHeight="1"/>
-    <row r="44" ht="20.1" customHeight="1"/>
-    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" ht="20.100000000000001" customHeight="1"/>
+    <row r="41" ht="20.100000000000001" customHeight="1"/>
+    <row r="42" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" ht="20.100000000000001" customHeight="1"/>
+    <row r="44" ht="20.100000000000001" customHeight="1"/>
+    <row r="45" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="23" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="25" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="35" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" s="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" s="24" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:5" s="19" customFormat="1" ht="60" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="31">
         <v>10</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="34">
         <v>0</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="35" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.786805555555556" right="0.786805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3084,7 +3169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3099,7 +3184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3112,7 +3197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3125,7 +3210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3138,7 +3223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3151,7 +3236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -3164,7 +3249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -3177,7 +3262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -3199,11 +3284,11 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
@@ -3216,7 +3301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>74</v>
       </c>
@@ -3229,7 +3314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -3242,7 +3327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -3255,7 +3340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
@@ -3268,7 +3353,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="60" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
@@ -3277,11 +3362,11 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>85</v>
       </c>
@@ -3294,7 +3379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
@@ -3307,7 +3392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>89</v>
       </c>
@@ -3320,7 +3405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
@@ -3333,7 +3418,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="60" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
@@ -3342,7 +3427,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3352,66 +3437,65 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3428,7 +3512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3443,7 +3527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3456,7 +3540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3469,7 +3553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3482,7 +3566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3495,7 +3579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -3508,7 +3592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -3521,7 +3605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -3534,20 +3618,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="80.1" customHeight="1" spans="1:5">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>103</v>
       </c>
@@ -3560,7 +3644,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>105</v>
       </c>
@@ -3579,67 +3663,66 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +3739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3671,7 +3754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3684,7 +3767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="60" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3697,7 +3780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3710,7 +3793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3723,7 +3806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -3736,7 +3819,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -3749,7 +3832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -3762,7 +3845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>103</v>
       </c>
@@ -3775,7 +3858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>105</v>
       </c>
@@ -3788,7 +3871,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>109</v>
       </c>
@@ -3807,68 +3890,67 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3885,7 +3967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3900,7 +3982,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -3913,7 +3995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -3926,7 +4008,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
@@ -3939,7 +4021,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>122</v>
       </c>
@@ -3952,7 +4034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" ht="51" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="51" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>124</v>
       </c>
@@ -3963,7 +4045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -3976,7 +4058,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>128</v>
       </c>
@@ -3989,7 +4071,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>130</v>
       </c>
@@ -4002,7 +4084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>131</v>
       </c>
@@ -4015,7 +4097,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
@@ -4028,7 +4110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>135</v>
       </c>
@@ -4041,7 +4123,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -4054,7 +4136,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" ht="81" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="81" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>138</v>
       </c>
@@ -4063,11 +4145,11 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>141</v>
       </c>
@@ -4080,7 +4162,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
@@ -4093,7 +4175,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
@@ -4112,68 +4194,67 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4190,7 +4271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -4205,7 +4286,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -4218,7 +4299,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -4231,7 +4312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" ht="51" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="51" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
@@ -4242,7 +4323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -4255,7 +4336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>154</v>
       </c>
@@ -4268,7 +4349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -4281,7 +4362,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>128</v>
       </c>
@@ -4294,7 +4375,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>130</v>
       </c>
@@ -4307,7 +4388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>131</v>
       </c>
@@ -4320,7 +4401,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
@@ -4333,7 +4414,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>135</v>
       </c>
@@ -4346,7 +4427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>141</v>
       </c>
@@ -4359,7 +4440,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>143</v>
       </c>
@@ -4372,7 +4453,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>145</v>
       </c>
@@ -4385,26 +4466,26 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4412,68 +4493,67 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="20.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="9.62962962962963" customWidth="1"/>
-    <col min="5" max="5" width="14.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="21.1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="21.2" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="21.1" customHeight="1" spans="1:5">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.2" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="21.1" customHeight="1" spans="1:5">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4490,7 +4570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="21.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="21.2" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -4505,7 +4585,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" ht="21.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="21.2" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -4518,7 +4598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" ht="21.1" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="21.2" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -4531,7 +4611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="21.1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="21.2" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>152</v>
       </c>
@@ -4544,7 +4624,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" ht="21.1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="21.2" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>154</v>
       </c>
@@ -4557,7 +4637,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" ht="21.1" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="21.2" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>164</v>
       </c>
@@ -4570,7 +4650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" ht="21.1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="21.2" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>166</v>
       </c>
@@ -4583,7 +4663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" ht="21.1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="21.2" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>168</v>
       </c>
@@ -4596,7 +4676,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" ht="21.1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="21.2" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>170</v>
       </c>
@@ -4609,7 +4689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" ht="21.1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="21.2" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
@@ -4622,7 +4702,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" ht="21.1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="21.2" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>141</v>
       </c>
@@ -4635,7 +4715,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" ht="21.1" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="21.2" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>143</v>
       </c>
@@ -4648,7 +4728,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" ht="21.1" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="21.2" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>145</v>
       </c>
@@ -4667,10 +4747,10 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28445\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" tabRatio="832" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="9936" tabRatio="832" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Log" sheetId="2" r:id="rId2"/>
     <sheet name="HY_Card" sheetId="7" r:id="rId3"/>
-    <sheet name="tbl_user" sheetId="11" r:id="rId4"/>
-    <sheet name="tbl_org" sheetId="10" r:id="rId5"/>
-    <sheet name="tbl_dict" sheetId="9" r:id="rId6"/>
-    <sheet name="tbl_materiel" sheetId="12" r:id="rId7"/>
-    <sheet name="tbl_channel" sheetId="13" r:id="rId8"/>
-    <sheet name="tbl_purchase_history" sheetId="14" r:id="rId9"/>
-    <sheet name="tbl_budget" sheetId="15" r:id="rId10"/>
-    <sheet name="tbl_project_fileitem" sheetId="16" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId4"/>
+    <sheet name="tbl_user" sheetId="11" r:id="rId5"/>
+    <sheet name="tbl_org" sheetId="10" r:id="rId6"/>
+    <sheet name="tbl_dict" sheetId="9" r:id="rId7"/>
+    <sheet name="tbl_materiel" sheetId="12" r:id="rId8"/>
+    <sheet name="tbl_channel" sheetId="13" r:id="rId9"/>
+    <sheet name="tbl_purchase_history" sheetId="14" r:id="rId10"/>
+    <sheet name="tbl_budget" sheetId="15" r:id="rId11"/>
+    <sheet name="tbl_project_fileitem" sheetId="16" r:id="rId12"/>
+    <sheet name="tbl_stock" sheetId="17" r:id="rId13"/>
+    <sheet name="tbl_stock_history" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="256">
   <si>
     <t>模块名</t>
   </si>
@@ -749,12 +757,147 @@
     <t>tbl_project_fileitem</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>tbl_stock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存信息表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存ID</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget_ID</t>
+  </si>
+  <si>
+    <t>预算ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat_ID</t>
+  </si>
+  <si>
+    <t>stock_Num</t>
+  </si>
+  <si>
+    <t>storage_person_ID</t>
+  </si>
+  <si>
+    <t>storage_time</t>
+  </si>
+  <si>
+    <t>useType</t>
+  </si>
+  <si>
+    <t>reserve2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve3</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留字段1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留字段2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留字段3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库人ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_stock_history</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存历史纪录表（库存进出明细）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_ID</t>
+  </si>
+  <si>
+    <t>stock_change_Num</t>
+  </si>
+  <si>
+    <t>useTpye</t>
+  </si>
+  <si>
+    <t>operation_person_ID</t>
+  </si>
+  <si>
+    <t>operation_time</t>
+  </si>
+  <si>
+    <t>变更库存量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存记录ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型：
+1：采购入库变更
+2：消耗出库变更
+3：调度变更</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_project_ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标项目ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +1569,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,6 +1602,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1456,12 +1629,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1483,27 +1650,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,21 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1591,6 +1734,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1863,14 +2009,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="45" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:21" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -1891,8 +2037,8 @@
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -1902,8 +2048,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
       <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
@@ -1911,8 +2057,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="66"/>
+    <row r="4" spans="1:21" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
       <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
@@ -1920,8 +2066,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="46" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="67"/>
+    <row r="5" spans="1:21" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
       <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
@@ -1930,11 +2076,11 @@
       </c>
       <c r="D5" s="59"/>
     </row>
-    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="D6" s="49"/>
     </row>
-    <row r="7" spans="1:21" s="47" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:21" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1957,7 +2103,7 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -1980,7 +2126,7 @@
       <c r="T8" s="46"/>
       <c r="U8" s="46"/>
     </row>
-    <row r="9" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -2003,7 +2149,7 @@
       <c r="T9" s="46"/>
       <c r="U9" s="46"/>
     </row>
-    <row r="10" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -2026,7 +2172,7 @@
       <c r="T10" s="46"/>
       <c r="U10" s="46"/>
     </row>
-    <row r="11" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:21" s="48" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -2049,41 +2195,41 @@
       <c r="T11" s="46"/>
       <c r="U11" s="46"/>
     </row>
-    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="D12" s="49"/>
     </row>
-    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="D13" s="49"/>
     </row>
-    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="D14" s="49"/>
     </row>
-    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="1:21" ht="19.5" customHeight="1">
+    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="1:21" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:21" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
     </row>
-    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="60"/>
     </row>
-    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="61"/>
@@ -2094,7 +2240,7 @@
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="D21" s="49"/>
       <c r="E21" s="61"/>
@@ -2105,7 +2251,7 @@
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
     </row>
-    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="61"/>
@@ -2116,7 +2262,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="46"/>
     </row>
-    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="61"/>
@@ -2127,12 +2273,12 @@
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
     </row>
-    <row r="25" spans="1:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="F25"/>
@@ -2152,7 +2298,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="49"/>
@@ -2163,7 +2309,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="D27" s="62"/>
       <c r="E27" s="49"/>
@@ -2174,7 +2320,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="49"/>
@@ -2185,7 +2331,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="48"/>
@@ -2196,36 +2342,36 @@
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
     </row>
-    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
     </row>
-    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
     </row>
-    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="49"/>
     </row>
-    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="49"/>
     </row>
-    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="49"/>
     </row>
-    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="49"/>
     </row>
-    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="49"/>
     </row>
-    <row r="37" spans="2:21" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:21" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="E37" s="49"/>
@@ -2236,7 +2382,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="2:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -2258,7 +2404,7 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="62"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
@@ -2267,7 +2413,7 @@
       <c r="J39" s="50"/>
       <c r="K39" s="50"/>
     </row>
-    <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="62"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
@@ -2276,7 +2422,7 @@
       <c r="J40" s="50"/>
       <c r="K40" s="50"/>
     </row>
-    <row r="41" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="49"/>
     </row>
   </sheetData>
@@ -2297,57 +2443,57 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="B2" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2364,7 +2510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2376,25 +2522,25 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.2" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>113</v>
@@ -2402,12 +2548,12 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>157</v>
@@ -2415,12 +2561,12 @@
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.2" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>157</v>
@@ -2428,12 +2574,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>157</v>
@@ -2441,12 +2587,12 @@
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>157</v>
@@ -2454,12 +2600,12 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="41.1" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>157</v>
@@ -2467,12 +2613,12 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
@@ -2480,38 +2626,38 @@
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.2" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>157</v>
@@ -2519,12 +2665,12 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>157</v>
@@ -2532,19 +2678,6 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2564,230 +2697,255 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="B2" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="B3" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="94" t="s">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="96" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="94" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95" t="s">
-        <v>218</v>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2797,6 +2955,742 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="71" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
@@ -2812,16 +3706,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="13.75" style="37" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="100.75" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="100.77734375" style="37" customWidth="1"/>
     <col min="5" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
@@ -2835,7 +3729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>16</v>
       </c>
@@ -2849,59 +3743,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
       <c r="D4" s="44"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" spans="1:4" ht="60" customHeight="1"/>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:4" ht="60" customHeight="1"/>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1"/>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:4" ht="60" customHeight="1"/>
-    <row r="16" spans="1:4" ht="60" customHeight="1"/>
-    <row r="17" ht="39.950000000000003" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="39.950000000000003" customHeight="1"/>
-    <row r="21" ht="80.099999999999994" customHeight="1"/>
-    <row r="22" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" ht="60" customHeight="1"/>
-    <row r="24" ht="39.950000000000003" customHeight="1"/>
-    <row r="25" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" ht="60" customHeight="1"/>
-    <row r="29" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -2917,65 +3811,65 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="72" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="72" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-    </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
@@ -2992,7 +3886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
@@ -3007,7 +3901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
@@ -3020,7 +3914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
@@ -3035,7 +3929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>39</v>
       </c>
@@ -3050,7 +3944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="19" customFormat="1" ht="60" customHeight="1">
+    <row r="11" spans="1:5" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>42</v>
       </c>
@@ -3067,7 +3961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>45</v>
       </c>
@@ -3104,55 +3998,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3169,7 +4078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3184,7 +4093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3197,7 +4106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3210,7 +4119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3223,7 +4132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3236,7 +4145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -3249,7 +4158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -3262,7 +4171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
@@ -3275,7 +4184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
@@ -3288,7 +4197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
@@ -3301,7 +4210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>74</v>
       </c>
@@ -3314,7 +4223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -3327,7 +4236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>79</v>
       </c>
@@ -3340,7 +4249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
@@ -3353,7 +4262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" customHeight="1">
+    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
@@ -3366,7 +4275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>85</v>
       </c>
@@ -3379,7 +4288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
@@ -3392,7 +4301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>89</v>
       </c>
@@ -3405,7 +4314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
@@ -3418,7 +4327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" customHeight="1">
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
@@ -3445,7 +4354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3453,49 +4362,49 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +4421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3527,7 +4436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3540,7 +4449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3553,7 +4462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3566,7 +4475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3579,7 +4488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -3592,7 +4501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -3605,7 +4514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -3618,7 +4527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>101</v>
       </c>
@@ -3631,7 +4540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>103</v>
       </c>
@@ -3644,7 +4553,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>105</v>
       </c>
@@ -3672,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3680,49 +4589,49 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3739,7 +4648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3754,7 +4663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -3767,7 +4676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3780,7 +4689,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3793,7 +4702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -3806,7 +4715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -3819,7 +4728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
@@ -3832,7 +4741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -3845,7 +4754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>103</v>
       </c>
@@ -3858,7 +4767,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>105</v>
       </c>
@@ -3871,7 +4780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>109</v>
       </c>
@@ -3898,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -3906,51 +4815,51 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3967,7 +4876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3982,7 +4891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -3995,7 +4904,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -4008,7 +4917,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>120</v>
       </c>
@@ -4021,7 +4930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>122</v>
       </c>
@@ -4034,7 +4943,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" customHeight="1">
+    <row r="10" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>124</v>
       </c>
@@ -4045,7 +4954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
@@ -4058,7 +4967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>128</v>
       </c>
@@ -4071,7 +4980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>130</v>
       </c>
@@ -4084,7 +4993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>131</v>
       </c>
@@ -4097,7 +5006,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
@@ -4110,7 +5019,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>135</v>
       </c>
@@ -4123,7 +5032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -4136,7 +5045,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="81" customHeight="1">
+    <row r="18" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>138</v>
       </c>
@@ -4149,7 +5058,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>141</v>
       </c>
@@ -4162,7 +5071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
@@ -4175,7 +5084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
@@ -4187,305 +5096,6 @@
       <c r="E21" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E1" location="index!A1" display="Index"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4503,57 +5113,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4570,7 +5180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -4582,10 +5192,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -4595,10 +5205,10 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.2" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
@@ -4608,64 +5218,62 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>157</v>
@@ -4673,25 +5281,25 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>157</v>
@@ -4699,38 +5307,38 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>157</v>
@@ -4738,8 +5346,55 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>146</v>
       </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -15,18 +15,20 @@
     <sheet name="tbl_materiel" sheetId="12" r:id="rId6"/>
     <sheet name="tbl_channel" sheetId="13" r:id="rId7"/>
     <sheet name="tbl_purchase_history" sheetId="14" r:id="rId8"/>
-    <sheet name="tbl_budget" sheetId="15" r:id="rId9"/>
-    <sheet name="tbl_project" sheetId="20" r:id="rId10"/>
-    <sheet name="tbl_project_fileitem" sheetId="16" r:id="rId11"/>
-    <sheet name="tbl_stock" sheetId="17" r:id="rId12"/>
-    <sheet name="tbl_stock_history" sheetId="19" r:id="rId13"/>
+    <sheet name="tbl_project" sheetId="20" r:id="rId9"/>
+    <sheet name="tbl_project_fileitem" sheetId="16" r:id="rId10"/>
+    <sheet name="tbl_stock" sheetId="17" r:id="rId11"/>
+    <sheet name="tbl_stock_history" sheetId="19" r:id="rId12"/>
+    <sheet name="tbl_budget" sheetId="22" r:id="rId13"/>
+    <sheet name="tbl_budget_tx" sheetId="23" r:id="rId14"/>
+    <sheet name="tbl_region" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="302">
   <si>
     <t>模块名</t>
   </si>
@@ -522,49 +524,10 @@
     <t>所属项目ID</t>
   </si>
   <si>
-    <t>预算记录ID</t>
-  </si>
-  <si>
     <t>budget_name</t>
   </si>
   <si>
     <t>预算信息名称</t>
-  </si>
-  <si>
-    <t>budget_people_ID</t>
-  </si>
-  <si>
-    <t>预算人员ID</t>
-  </si>
-  <si>
-    <t>approver_ID</t>
-  </si>
-  <si>
-    <t>审核人ID</t>
-  </si>
-  <si>
-    <t>isApprover</t>
-  </si>
-  <si>
-    <t>审核标志（0：未审核；1：已审核）</t>
-  </si>
-  <si>
-    <t>edit_people_ID</t>
-  </si>
-  <si>
-    <t>编辑人ID（供应渠道）</t>
-  </si>
-  <si>
-    <t>isEdit</t>
-  </si>
-  <si>
-    <t>编辑标志（0：未编辑；1已编辑）</t>
-  </si>
-  <si>
-    <t>approver_date_time</t>
-  </si>
-  <si>
-    <t>审核时间</t>
   </si>
   <si>
     <t>项目文件上传明细表</t>
@@ -1081,19 +1044,183 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>tbl_budget</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算管理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本预算明细表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_region</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_budget</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>成本预算表</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_budget</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_budget</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算管理</t>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget_no</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算编码</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算制单人员ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator_time</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>checker</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_time</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier_editer</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应渠道编辑人</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_time</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：
+10-new
+20-制单待审核
+30-审核待编辑
+40-已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本预算表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget_no</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算编码</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>region_ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_budget_tx</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_budget_tx</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_region</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1683,9 +1810,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1734,6 +1858,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,6 +1891,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1784,30 +1935,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2144,7 +2271,7 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2176,7 +2303,7 @@
       <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -2187,7 +2314,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2323,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
@@ -2205,36 +2332,36 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="29" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="60"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>266</v>
+      <c r="A6" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>253</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:21" s="30" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81" t="s">
-        <v>267</v>
+      <c r="A7" s="68"/>
+      <c r="B7" s="64" t="s">
+        <v>254</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="43"/>
+        <v>256</v>
+      </c>
+      <c r="D7" s="42"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -2254,16 +2381,16 @@
       <c r="U7"/>
     </row>
     <row r="8" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="44"/>
+      <c r="A8" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="43"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -2283,10 +2410,14 @@
       <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="44"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="43"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -2306,10 +2437,14 @@
       <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="44"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="43"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -2360,12 +2495,12 @@
     <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="32"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="32"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -2376,7 +2511,7 @@
     <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="32"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="44"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -2387,7 +2522,7 @@
     <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="32"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -2398,7 +2533,7 @@
     <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="32"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -2432,8 +2567,8 @@
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="32"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -2443,8 +2578,8 @@
       <c r="K25"/>
     </row>
     <row r="26" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="32"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -2454,8 +2589,8 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="A27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="32"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -2477,8 +2612,8 @@
     </row>
     <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
     </row>
@@ -2519,7 +2654,7 @@
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
@@ -2538,7 +2673,7 @@
       <c r="U37"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="E38" s="45"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
@@ -2547,7 +2682,7 @@
       <c r="K38" s="33"/>
     </row>
     <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="E39" s="45"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
@@ -2559,9 +2694,10 @@
       <c r="E40" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -2572,6 +2708,8 @@
     <hyperlink ref="C6" location="tbl_project!A1" display="tbl_projetc"/>
     <hyperlink ref="C7" location="tbl_project_fileitem!A1" display="tbl_project_fileitem"/>
     <hyperlink ref="C8" location="tbl_budget!A1" display="tbl_budget"/>
+    <hyperlink ref="C9" location="tbl_budget_tx!A1" display="tbl_budget_tx"/>
+    <hyperlink ref="C10" location="tbl_region!A1" display="tbl_region"/>
   </hyperlinks>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2579,324 +2717,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="79" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="79" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="79" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="79" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="79" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="79" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="79" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="79" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="79" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="79" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="78" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E1" location="index!A1" display="Index"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2911,217 +2731,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="72" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="50" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
+      <c r="B13" s="50" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54" t="s">
+      <c r="C13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="50" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52" t="s">
+      <c r="B14" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="55" t="s">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B15" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="55" t="s">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55" t="s">
+      <c r="B16" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +2958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3156,212 +2976,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A3" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" customHeight="1">
+      <c r="A7" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A8" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36.6" customHeight="1">
+      <c r="A9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A13" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="70" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A14" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A15" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A8" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="36.6" customHeight="1">
-      <c r="A9" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A10" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A11" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A12" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A14" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3397,225 +3217,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A3" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A7" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A8" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="70" t="s">
+      <c r="B8" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A5" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="51" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A6" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="53" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A10" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="73.900000000000006" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="C11" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A12" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A8" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="C12" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A13" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A9" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A10" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="73.900000000000006" customHeight="1">
-      <c r="A11" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A12" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A13" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52" t="s">
-        <v>217</v>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52" t="s">
-        <v>210</v>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52" t="s">
-        <v>211</v>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A16" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52" t="s">
-        <v>212</v>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3625,6 +3445,757 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A12" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A12" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.2" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
@@ -3756,11 +4327,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
@@ -3769,23 +4340,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4099,11 +4670,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4112,23 +4683,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4326,11 +4897,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4339,23 +4910,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4554,11 +5125,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4567,23 +5138,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -4858,11 +5429,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4871,23 +5442,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -5157,11 +5728,11 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5170,23 +5741,23 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" ht="21.2" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="21.2" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -5392,57 +5963,55 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -5459,31 +6028,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>154</v>
+      <c r="D5" s="56"/>
+      <c r="E5" s="55" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="56" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="55" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5494,7 +6063,7 @@
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>37</v>
@@ -5507,166 +6076,192 @@
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="41.1" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>126</v>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="62" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5679,6 +6274,7 @@
   <hyperlinks>
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/design/Database-Master.xlsx
+++ b/doc/design/Database-Master.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28445\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" tabRatio="832"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22956" windowHeight="9936" tabRatio="832" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -19,16 +24,18 @@
     <sheet name="tbl_project_fileitem" sheetId="16" r:id="rId10"/>
     <sheet name="tbl_stock" sheetId="17" r:id="rId11"/>
     <sheet name="tbl_stock_history" sheetId="19" r:id="rId12"/>
-    <sheet name="tbl_budget" sheetId="22" r:id="rId13"/>
-    <sheet name="tbl_budget_tx" sheetId="23" r:id="rId14"/>
-    <sheet name="tbl_region" sheetId="21" r:id="rId15"/>
+    <sheet name="tbl_stock_channel" sheetId="25" r:id="rId13"/>
+    <sheet name="tbl_budget" sheetId="22" r:id="rId14"/>
+    <sheet name="tbl_budget_tx" sheetId="23" r:id="rId15"/>
+    <sheet name="tbl_region" sheetId="21" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="310">
   <si>
     <t>模块名</t>
   </si>
@@ -726,9 +733,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>stock_ID</t>
-  </si>
-  <si>
     <t>stock_change_Num</t>
   </si>
   <si>
@@ -742,10 +746,6 @@
   </si>
   <si>
     <t>变更库存量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存ID</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -1223,12 +1223,52 @@
     <t>tbl_region</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>tbl_stock_channel</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存渠道表</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购渠道ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat_id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel_id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_Num</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,7 +1726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1881,6 +1921,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2270,18 +2316,18 @@
   </sheetPr>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:21" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2302,8 +2348,8 @@
       <c r="L1" s="37"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -2313,8 +2359,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
       <c r="B3" s="38" t="s">
         <v>6</v>
       </c>
@@ -2322,8 +2368,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="66"/>
+    <row r="4" spans="1:21" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
       <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
@@ -2331,8 +2377,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="67"/>
+    <row r="5" spans="1:21" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
       <c r="B5" s="40" t="s">
         <v>10</v>
       </c>
@@ -2341,25 +2387,25 @@
       </c>
       <c r="D5" s="41"/>
     </row>
-    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="64" t="s">
+      <c r="C7" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>256</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7"/>
@@ -2380,15 +2426,15 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="68" t="s">
-        <v>259</v>
+    <row r="8" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>257</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="29"/>
@@ -2409,13 +2455,13 @@
       <c r="T8" s="29"/>
       <c r="U8" s="29"/>
     </row>
-    <row r="9" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="68"/>
+    <row r="9" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
       <c r="B9" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="29"/>
@@ -2436,13 +2482,13 @@
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
     </row>
-    <row r="10" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="68"/>
+    <row r="10" spans="1:21" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
       <c r="B10" s="64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="29"/>
@@ -2463,41 +2509,41 @@
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
     </row>
-    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:21" ht="19.5" customHeight="1">
+    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:21" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:21" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="42"/>
     </row>
-    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="43"/>
@@ -2508,7 +2554,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="43"/>
@@ -2519,7 +2565,7 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="43"/>
@@ -2530,7 +2576,7 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="43"/>
@@ -2541,12 +2587,12 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="F24"/>
@@ -2566,7 +2612,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="32"/>
@@ -2577,7 +2623,7 @@
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="32"/>
@@ -2588,7 +2634,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:21" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="32"/>
@@ -2599,7 +2645,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="D28" s="32"/>
       <c r="E28" s="31"/>
@@ -2610,36 +2656,36 @@
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="45"/>
       <c r="C29" s="46"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="32"/>
     </row>
-    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="2:21" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:21" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="E36" s="32"/>
@@ -2650,7 +2696,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="2:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -2672,7 +2718,7 @@
       <c r="T37"/>
       <c r="U37"/>
     </row>
-    <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="44"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -2681,7 +2727,7 @@
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
     </row>
-    <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="44"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -2690,7 +2736,7 @@
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
     </row>
-    <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="32"/>
     </row>
   </sheetData>
@@ -2724,48 +2770,48 @@
       <selection activeCell="B24" sqref="B24:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -2782,7 +2828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>29</v>
       </c>
@@ -2797,7 +2843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>32</v>
       </c>
@@ -2810,7 +2856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +2869,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>38</v>
       </c>
@@ -2836,7 +2882,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>40</v>
       </c>
@@ -2849,7 +2895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>165</v>
       </c>
@@ -2862,7 +2908,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>168</v>
       </c>
@@ -2875,7 +2921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>170</v>
       </c>
@@ -2890,7 +2936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>173</v>
       </c>
@@ -2905,7 +2951,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>176</v>
       </c>
@@ -2918,7 +2964,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>178</v>
       </c>
@@ -2931,7 +2977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>181</v>
       </c>
@@ -2966,51 +3012,51 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -3027,7 +3073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>29</v>
       </c>
@@ -3042,7 +3088,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>188</v>
       </c>
@@ -3057,7 +3103,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1">
+    <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>152</v>
       </c>
@@ -3072,7 +3118,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>190</v>
       </c>
@@ -3087,7 +3133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36.6" customHeight="1">
+    <row r="9" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>191</v>
       </c>
@@ -3102,7 +3148,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
+    <row r="10" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>192</v>
       </c>
@@ -3117,7 +3163,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>193</v>
       </c>
@@ -3132,7 +3178,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>194</v>
       </c>
@@ -3145,7 +3191,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>121</v>
       </c>
@@ -3158,7 +3204,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>195</v>
       </c>
@@ -3171,7 +3217,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>196</v>
       </c>
@@ -3201,57 +3247,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
@@ -3268,7 +3314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>29</v>
       </c>
@@ -3280,12 +3326,12 @@
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>93</v>
@@ -3293,70 +3339,70 @@
       <c r="C6" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.2" customHeight="1">
+      <c r="D6" s="52"/>
+      <c r="E6" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>159</v>
-      </c>
+      <c r="C7" s="50"/>
       <c r="D7" s="52"/>
       <c r="E7" s="53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>159</v>
+      </c>
       <c r="D8" s="52"/>
       <c r="E8" s="53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A9" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>93</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>36</v>
+      <c r="B10" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="73.900000000000006" customHeight="1">
+      <c r="D10" s="54"/>
+      <c r="E10" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>209</v>
       </c>
@@ -3367,41 +3413,39 @@
         <v>159</v>
       </c>
       <c r="D11" s="54"/>
-      <c r="E11" s="53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="E11" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>43</v>
@@ -3409,12 +3453,12 @@
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
       <c r="E14" s="51" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>43</v>
@@ -3422,19 +3466,6 @@
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A16" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3454,270 +3485,185 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="21.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B5" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="58" t="s">
+      <c r="C9" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21.2" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>286</v>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="65" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3731,62 +3677,63 @@
     <hyperlink ref="E1" location="index!A1" display="Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="B2" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -3803,22 +3750,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="57" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>32</v>
       </c>
@@ -3831,7 +3778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -3844,12 +3791,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="5"/>
@@ -3857,7 +3804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>40</v>
       </c>
@@ -3870,37 +3817,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="57" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>93</v>
@@ -3908,72 +3855,98 @@
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
       <c r="E12" s="57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>95</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="58" t="s">
-        <v>98</v>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>93</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>298</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3992,55 +3965,57 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4057,22 +4032,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>32</v>
       </c>
@@ -4085,7 +4060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -4098,12 +4073,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="5"/>
@@ -4111,7 +4086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>40</v>
       </c>
@@ -4124,69 +4099,110 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>87</v>
+      <c r="C16" s="58"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4203,6 +4219,232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
@@ -4211,16 +4453,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="13.75" style="20" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="100.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="100.77734375" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
@@ -4234,7 +4476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
@@ -4248,59 +4490,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" spans="1:4" ht="60" customHeight="1"/>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:4" ht="60" customHeight="1"/>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1"/>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:4" ht="60" customHeight="1"/>
-    <row r="16" spans="1:4" ht="60" customHeight="1"/>
-    <row r="17" ht="39.950000000000003" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="39.950000000000003" customHeight="1"/>
-    <row r="21" ht="80.099999999999994" customHeight="1"/>
-    <row r="22" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" ht="60" customHeight="1"/>
-    <row r="24" ht="39.950000000000003" customHeight="1"/>
-    <row r="25" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" ht="60" customHeight="1"/>
-    <row r="29" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -4316,49 +4558,49 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4375,7 +4617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -4390,7 +4632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -4403,7 +4645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -4416,7 +4658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -4429,7 +4671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4442,7 +4684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -4455,7 +4697,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -4468,7 +4710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -4481,7 +4723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -4494,7 +4736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
@@ -4507,7 +4749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -4520,7 +4762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
@@ -4533,7 +4775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -4546,7 +4788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>61</v>
       </c>
@@ -4559,7 +4801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" customHeight="1">
+    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
@@ -4572,7 +4814,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>65</v>
       </c>
@@ -4585,7 +4827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>67</v>
       </c>
@@ -4598,7 +4840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>69</v>
       </c>
@@ -4611,7 +4853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
@@ -4624,7 +4866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" customHeight="1">
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
@@ -4659,49 +4901,49 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4718,7 +4960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -4733,7 +4975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -4746,7 +4988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -4759,7 +5001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -4772,7 +5014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4785,7 +5027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -4798,7 +5040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
@@ -4811,7 +5053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -4824,7 +5066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>81</v>
       </c>
@@ -4837,7 +5079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>83</v>
       </c>
@@ -4850,7 +5092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
@@ -4886,49 +5128,49 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4945,7 +5187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -4960,7 +5202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -4973,7 +5215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -4986,7 +5228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -4999,7 +5241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5012,7 +5254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -5025,7 +5267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
@@ -5038,7 +5280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -5051,7 +5293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -5064,7 +5306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>85</v>
       </c>
@@ -5077,7 +5319,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>89</v>
       </c>
@@ -5112,51 +5354,51 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -5173,7 +5415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -5188,7 +5430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -5201,7 +5443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
@@ -5214,7 +5456,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>100</v>
       </c>
@@ -5227,7 +5469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>102</v>
       </c>
@@ -5240,7 +5482,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" customHeight="1">
+    <row r="10" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>104</v>
       </c>
@@ -5251,7 +5493,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -5264,7 +5506,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
@@ -5277,7 +5519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -5290,7 +5532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>111</v>
       </c>
@@ -5303,7 +5545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5558,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>115</v>
       </c>
@@ -5329,7 +5571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>116</v>
       </c>
@@ -5342,7 +5584,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="81" customHeight="1">
+    <row r="18" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>118</v>
       </c>
@@ -5355,7 +5597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>121</v>
       </c>
@@ -5368,7 +5610,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>123</v>
       </c>
@@ -5381,7 +5623,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>125</v>
       </c>
@@ -5416,51 +5658,51 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -5477,7 +5719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -5492,7 +5734,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -5505,7 +5747,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
@@ -5518,7 +5760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" customHeight="1">
+    <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>104</v>
       </c>
@@ -5529,7 +5771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -5542,7 +5784,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>134</v>
       </c>
@@ -5555,7 +5797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -5568,7 +5810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
@@ -5581,7 +5823,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
@@ -5594,7 +5836,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>111</v>
       </c>
@@ -5607,7 +5849,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>113</v>
       </c>
@@ -5620,7 +5862,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>115</v>
       </c>
@@ -5633,7 +5875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>121</v>
       </c>
@@ -5646,7 +5888,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>123</v>
       </c>
@@ -5659,7 +5901,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>125</v>
       </c>
@@ -5672,21 +5914,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5715,51 +5957,51 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.2" customHeight="1">
+    <row r="1" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.2" customHeight="1">
+    <row r="2" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -5776,7 +6018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.2" customHeight="1">
+    <row r="5" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -5791,7 +6033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.2" customHeight="1">
+    <row r="6" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -5804,7 +6046,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.2" customHeight="1">
+    <row r="7" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
@@ -5817,7 +6059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.2" customHeight="1">
+    <row r="8" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>132</v>
       </c>
@@ -5830,7 +6072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.2" customHeight="1">
+    <row r="9" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>134</v>
       </c>
@@ -5843,7 +6085,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.2" customHeight="1">
+    <row r="10" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>144</v>
       </c>
@@ -5856,7 +6098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.2" customHeight="1">
+    <row r="11" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>146</v>
       </c>
@@ -5869,7 +6111,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.2" customHeight="1">
+    <row r="12" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>148</v>
       </c>
@@ -5882,7 +6124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.2" customHeight="1">
+    <row r="13" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
@@ -5895,7 +6137,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.2" customHeight="1">
+    <row r="14" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>152</v>
       </c>
@@ -5908,7 +6150,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21.2" customHeight="1">
+    <row r="15" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
@@ -5921,7 +6163,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.2" customHeight="1">
+    <row r="16" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>123</v>
       </c>
@@ -5934,7 +6176,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.2" customHeight="1">
+    <row r="17" spans="1:5" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>125</v>
       </c>
@@ -5965,53 +6207,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.625" style="13" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="23" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -6028,7 +6270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>29</v>
       </c>
@@ -6043,7 +6285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>32</v>
       </c>
@@ -6056,7 +6298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1">
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -6069,7 +6311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -6082,7 +6324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>40</v>
       </c>
@@ -6095,173 +6337,173 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="59" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>225</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="56"/>
       <c r="E11" s="61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="59" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>230</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>233</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="63" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="63" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="63" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="62" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
